--- a/Table/Table_xls/x循环任务/x循环任务总表.xlsx
+++ b/Table/Table_xls/x循环任务/x循环任务总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="16425" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1338,43 +1338,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1386,15 +1357,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1408,16 +1387,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1431,18 +1424,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1454,27 +1464,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1564,7 +1564,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,7 +1588,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,13 +1660,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,19 +1684,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,55 +1708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,49 +1732,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1752,11 +1752,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1785,13 +1791,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1805,17 +1815,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1835,17 +1839,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1854,148 +1854,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -2630,31 +2630,31 @@
   <dimension ref="A1:DB97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O41" sqref="O41"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="13.1272727272727" customWidth="1"/>
-    <col min="4" max="4" width="3.87272727272727" customWidth="1"/>
-    <col min="5" max="5" width="5.12727272727273" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="3.875" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="9" width="2.87272727272727" customWidth="1"/>
+    <col min="8" max="9" width="2.875" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="6.12727272727273" customWidth="1"/>
-    <col min="12" max="12" width="5.37272727272727" customWidth="1"/>
-    <col min="13" max="13" width="5.87272727272727" customWidth="1"/>
-    <col min="14" max="17" width="2.87272727272727" customWidth="1"/>
-    <col min="18" max="18" width="6.62727272727273" customWidth="1"/>
-    <col min="19" max="22" width="2.87272727272727" customWidth="1"/>
+    <col min="11" max="11" width="6.125" customWidth="1"/>
+    <col min="12" max="12" width="5.375" customWidth="1"/>
+    <col min="13" max="13" width="5.875" customWidth="1"/>
+    <col min="14" max="17" width="2.875" customWidth="1"/>
+    <col min="18" max="18" width="6.625" customWidth="1"/>
+    <col min="19" max="22" width="2.875" customWidth="1"/>
     <col min="23" max="23" width="5.5" customWidth="1"/>
-    <col min="24" max="28" width="2.87272727272727" customWidth="1"/>
+    <col min="24" max="28" width="2.875" customWidth="1"/>
     <col min="29" max="30" width="7.5" customWidth="1"/>
     <col min="31" max="33" width="7.5" style="10" customWidth="1"/>
     <col min="34" max="38" width="7.5" customWidth="1"/>
@@ -2669,30 +2669,30 @@
     <col min="56" max="60" width="4.5" style="2" customWidth="1"/>
     <col min="61" max="62" width="6.5" style="2" customWidth="1"/>
     <col min="63" max="63" width="8.5" customWidth="1"/>
-    <col min="64" max="64" width="13.3727272727273" customWidth="1"/>
-    <col min="65" max="65" width="33.8727272727273" customWidth="1"/>
+    <col min="64" max="64" width="13.375" customWidth="1"/>
+    <col min="65" max="65" width="33.875" customWidth="1"/>
     <col min="66" max="66" width="3.5" customWidth="1"/>
-    <col min="67" max="67" width="6.75454545454545" customWidth="1"/>
-    <col min="68" max="68" width="9.62727272727273" style="11" customWidth="1"/>
+    <col min="67" max="67" width="6.75833333333333" customWidth="1"/>
+    <col min="68" max="68" width="9.625" style="11" customWidth="1"/>
     <col min="69" max="69" width="7.5" style="11" customWidth="1"/>
-    <col min="70" max="72" width="16.1272727272727" style="11" customWidth="1"/>
-    <col min="73" max="73" width="12.7545454545455" style="12" customWidth="1"/>
-    <col min="74" max="74" width="11.8727272727273" style="13" customWidth="1"/>
-    <col min="75" max="75" width="27.6272727272727" style="13" customWidth="1"/>
-    <col min="76" max="77" width="10.7545454545455" customWidth="1"/>
+    <col min="70" max="72" width="16.125" style="11" customWidth="1"/>
+    <col min="73" max="73" width="12.7583333333333" style="12" customWidth="1"/>
+    <col min="74" max="74" width="11.875" style="13" customWidth="1"/>
+    <col min="75" max="75" width="27.625" style="13" customWidth="1"/>
+    <col min="76" max="77" width="10.7583333333333" customWidth="1"/>
     <col min="78" max="78" width="7.5" customWidth="1"/>
     <col min="79" max="79" width="3.5" customWidth="1"/>
-    <col min="80" max="81" width="10.7545454545455" customWidth="1"/>
+    <col min="80" max="81" width="10.7583333333333" customWidth="1"/>
     <col min="82" max="86" width="10.5" customWidth="1"/>
     <col min="91" max="91" width="7.5" style="10" customWidth="1"/>
     <col min="92" max="92" width="3.5" style="10" customWidth="1"/>
     <col min="93" max="93" width="7.5" style="10" customWidth="1"/>
-    <col min="94" max="94" width="9.62727272727273" style="10" customWidth="1"/>
-    <col min="95" max="102" width="16.1272727272727" style="14" customWidth="1"/>
-    <col min="103" max="106" width="16.1272727272727" style="10" customWidth="1"/>
+    <col min="94" max="94" width="9.625" style="10" customWidth="1"/>
+    <col min="95" max="102" width="16.125" style="14" customWidth="1"/>
+    <col min="103" max="106" width="16.125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="169.5" spans="1:106">
+    <row r="1" s="1" customFormat="1" ht="163.5" spans="1:106">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="17">
-        <v>1000</v>
+        <v>9999</v>
       </c>
       <c r="L11" s="17">
         <v>9999</v>
@@ -11012,7 +11012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" ht="15" spans="1:106">
+    <row r="36" s="3" customFormat="1" ht="14.25" spans="1:106">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="15" spans="1:106">
+    <row r="37" s="3" customFormat="1" ht="14.25" spans="1:106">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" ht="15" spans="1:106">
+    <row r="38" s="3" customFormat="1" ht="14.25" spans="1:106">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" ht="15" spans="1:106">
+    <row r="39" s="3" customFormat="1" ht="14.25" spans="1:106">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" ht="15" spans="1:106">
+    <row r="40" s="3" customFormat="1" ht="14.25" spans="1:106">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -12707,7 +12707,7 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -12724,7 +12724,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/Table/Table_xls/x循环任务/x循环任务总表.xlsx
+++ b/Table/Table_xls/x循环任务/x循环任务总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="11790"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="173">
   <si>
     <t>循环任务总表id</t>
   </si>
@@ -1052,166 +1052,31 @@
     <t>皇宫飞贼</t>
   </si>
   <si>
-    <t>1500001@100</t>
-  </si>
-  <si>
-    <t>1500002@100</t>
-  </si>
-  <si>
-    <t>1500003@100</t>
-  </si>
-  <si>
-    <t>1500004@100</t>
-  </si>
-  <si>
-    <t>1500005@100</t>
-  </si>
-  <si>
-    <t>1500006@100</t>
-  </si>
-  <si>
-    <t>1500007@100</t>
-  </si>
-  <si>
-    <t>1500008@100</t>
-  </si>
-  <si>
-    <t>1500009@100</t>
-  </si>
-  <si>
-    <t>1500010@100</t>
+    <t>1500001@20;1500002@20;1500003@20;1500004@20;1500005@20;1500006@20;1500007@20;1500008@20;1500009@20;1500010@20</t>
   </si>
   <si>
     <t>宝石副本</t>
   </si>
   <si>
-    <t>1510001@100</t>
-  </si>
-  <si>
-    <t>1510002@100</t>
-  </si>
-  <si>
-    <t>1510003@100</t>
-  </si>
-  <si>
-    <t>1510004@100</t>
-  </si>
-  <si>
-    <t>1510005@100</t>
-  </si>
-  <si>
-    <t>1510006@100</t>
-  </si>
-  <si>
-    <t>1510007@100</t>
-  </si>
-  <si>
-    <t>1510008@100</t>
-  </si>
-  <si>
-    <t>1510009@100</t>
-  </si>
-  <si>
-    <t>1510010@100</t>
+    <t>1510001@20;1510002@20;1510003@20;1510004@20;1510005@20;1510006@20;1510007@20;1510008@20;1510009@20;1510010@20</t>
   </si>
   <si>
     <t>兜兜任务</t>
   </si>
   <si>
-    <t>1520001@100</t>
-  </si>
-  <si>
-    <t>1520002@100</t>
-  </si>
-  <si>
-    <t>1520003@100</t>
-  </si>
-  <si>
-    <t>1520004@100</t>
-  </si>
-  <si>
-    <t>1520005@100</t>
-  </si>
-  <si>
-    <t>1520006@100</t>
-  </si>
-  <si>
-    <t>1520007@100</t>
-  </si>
-  <si>
-    <t>1520008@100</t>
-  </si>
-  <si>
-    <t>1520009@100</t>
-  </si>
-  <si>
-    <t>1520010@100</t>
+    <t>1520001@20;1520002@20;1520003@20;1520004@20;1520005@20;1520006@20;1520007@20;1520008@20;1520009@20;1520010@20</t>
   </si>
   <si>
     <t>洗练石副本</t>
   </si>
   <si>
-    <t>1530001@100</t>
-  </si>
-  <si>
-    <t>1530002@100</t>
-  </si>
-  <si>
-    <t>1530003@100</t>
-  </si>
-  <si>
-    <t>1530004@100</t>
-  </si>
-  <si>
-    <t>1530005@100</t>
-  </si>
-  <si>
-    <t>1530006@100</t>
-  </si>
-  <si>
-    <t>1530007@100</t>
-  </si>
-  <si>
-    <t>1530008@100</t>
-  </si>
-  <si>
-    <t>1530009@100</t>
-  </si>
-  <si>
-    <t>1530010@100</t>
+    <t>1530001@20;1530002@20;1530003@20;1530004@20;1530005@20;1530006@20;1530007@20;1530008@20;1530009@20;1530010@20</t>
   </si>
   <si>
     <t>法宝聚灵·任务</t>
   </si>
   <si>
-    <t>1540001@100</t>
-  </si>
-  <si>
-    <t>1540002@100</t>
-  </si>
-  <si>
-    <t>1540003@100</t>
-  </si>
-  <si>
-    <t>1540004@100</t>
-  </si>
-  <si>
-    <t>1540005@100</t>
-  </si>
-  <si>
-    <t>1540006@100</t>
-  </si>
-  <si>
-    <t>1540007@100</t>
-  </si>
-  <si>
-    <t>1540008@100</t>
-  </si>
-  <si>
-    <t>1540009@100</t>
-  </si>
-  <si>
-    <t>1540010@100</t>
+    <t>1540001@20;1540002@20;1540003@20;1540004@20;1540005@20;1540006@20;1540007@20;1540008@20;1540009@20;1540010@20</t>
   </si>
   <si>
     <t>挑战蚩尤</t>
@@ -1231,10 +1096,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1338,28 +1203,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1373,7 +1247,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1388,22 +1268,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,11 +1289,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1432,9 +1304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1456,23 +1328,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1564,19 +1429,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,13 +1471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,31 +1489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,31 +1507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,7 +1531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,13 +1555,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,25 +1603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1749,21 +1614,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1784,9 +1634,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1802,24 +1663,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1841,11 +1684,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1854,148 +1719,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -2630,31 +2495,31 @@
   <dimension ref="A1:DB97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="AM40" sqref="AM40:AV40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="3.875" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="13.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="3.87962962962963" customWidth="1"/>
+    <col min="5" max="5" width="5.12962962962963" customWidth="1"/>
     <col min="6" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="9" width="2.875" customWidth="1"/>
+    <col min="8" max="9" width="2.87962962962963" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="6.125" customWidth="1"/>
-    <col min="12" max="12" width="5.375" customWidth="1"/>
-    <col min="13" max="13" width="5.875" customWidth="1"/>
-    <col min="14" max="17" width="2.875" customWidth="1"/>
-    <col min="18" max="18" width="6.625" customWidth="1"/>
-    <col min="19" max="22" width="2.875" customWidth="1"/>
+    <col min="11" max="11" width="6.12962962962963" customWidth="1"/>
+    <col min="12" max="12" width="5.37962962962963" customWidth="1"/>
+    <col min="13" max="13" width="5.87962962962963" customWidth="1"/>
+    <col min="14" max="17" width="2.87962962962963" customWidth="1"/>
+    <col min="18" max="18" width="6.62962962962963" customWidth="1"/>
+    <col min="19" max="22" width="2.87962962962963" customWidth="1"/>
     <col min="23" max="23" width="5.5" customWidth="1"/>
-    <col min="24" max="28" width="2.875" customWidth="1"/>
+    <col min="24" max="28" width="2.87962962962963" customWidth="1"/>
     <col min="29" max="30" width="7.5" customWidth="1"/>
     <col min="31" max="33" width="7.5" style="10" customWidth="1"/>
     <col min="34" max="38" width="7.5" customWidth="1"/>
@@ -2669,30 +2534,30 @@
     <col min="56" max="60" width="4.5" style="2" customWidth="1"/>
     <col min="61" max="62" width="6.5" style="2" customWidth="1"/>
     <col min="63" max="63" width="8.5" customWidth="1"/>
-    <col min="64" max="64" width="13.375" customWidth="1"/>
-    <col min="65" max="65" width="33.875" customWidth="1"/>
+    <col min="64" max="64" width="13.3796296296296" customWidth="1"/>
+    <col min="65" max="65" width="33.8796296296296" customWidth="1"/>
     <col min="66" max="66" width="3.5" customWidth="1"/>
-    <col min="67" max="67" width="6.75833333333333" customWidth="1"/>
-    <col min="68" max="68" width="9.625" style="11" customWidth="1"/>
+    <col min="67" max="67" width="6.75925925925926" customWidth="1"/>
+    <col min="68" max="68" width="9.62962962962963" style="11" customWidth="1"/>
     <col min="69" max="69" width="7.5" style="11" customWidth="1"/>
-    <col min="70" max="72" width="16.125" style="11" customWidth="1"/>
-    <col min="73" max="73" width="12.7583333333333" style="12" customWidth="1"/>
-    <col min="74" max="74" width="11.875" style="13" customWidth="1"/>
-    <col min="75" max="75" width="27.625" style="13" customWidth="1"/>
-    <col min="76" max="77" width="10.7583333333333" customWidth="1"/>
+    <col min="70" max="72" width="16.1296296296296" style="11" customWidth="1"/>
+    <col min="73" max="73" width="12.7592592592593" style="12" customWidth="1"/>
+    <col min="74" max="74" width="11.8796296296296" style="13" customWidth="1"/>
+    <col min="75" max="75" width="27.6296296296296" style="13" customWidth="1"/>
+    <col min="76" max="77" width="10.7592592592593" customWidth="1"/>
     <col min="78" max="78" width="7.5" customWidth="1"/>
     <col min="79" max="79" width="3.5" customWidth="1"/>
-    <col min="80" max="81" width="10.7583333333333" customWidth="1"/>
+    <col min="80" max="81" width="10.7592592592593" customWidth="1"/>
     <col min="82" max="86" width="10.5" customWidth="1"/>
     <col min="91" max="91" width="7.5" style="10" customWidth="1"/>
     <col min="92" max="92" width="3.5" style="10" customWidth="1"/>
     <col min="93" max="93" width="7.5" style="10" customWidth="1"/>
-    <col min="94" max="94" width="9.625" style="10" customWidth="1"/>
-    <col min="95" max="102" width="16.125" style="14" customWidth="1"/>
-    <col min="103" max="106" width="16.125" style="10" customWidth="1"/>
+    <col min="94" max="94" width="9.62962962962963" style="10" customWidth="1"/>
+    <col min="95" max="102" width="16.1296296296296" style="14" customWidth="1"/>
+    <col min="103" max="106" width="16.1296296296296" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="163.5" spans="1:106">
+    <row r="1" s="1" customFormat="1" ht="174.6" spans="1:106">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10855,9 +10720,6 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-      <c r="AG35" s="3">
-        <v>107</v>
-      </c>
       <c r="AL35" s="3">
         <v>0</v>
       </c>
@@ -11012,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" ht="14.25" spans="1:106">
+    <row r="36" s="3" customFormat="1" ht="15.6" spans="1:106">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -11050,7 +10912,7 @@
         <v>10</v>
       </c>
       <c r="N36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="3">
         <v>1</v>
@@ -11091,9 +10953,6 @@
       <c r="AD36" s="3">
         <v>0</v>
       </c>
-      <c r="AG36" s="3">
-        <v>107</v>
-      </c>
       <c r="AL36" s="3">
         <v>0</v>
       </c>
@@ -11101,31 +10960,31 @@
         <v>160</v>
       </c>
       <c r="AN36" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AP36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AQ36" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AR36" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AS36" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AT36" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AU36" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AV36" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AW36" s="17" t="s">
         <v>109</v>
@@ -11199,7 +11058,7 @@
       <c r="CF36"/>
       <c r="CJ36" s="82"/>
       <c r="CK36" s="89">
-        <v>194022</v>
+        <v>193000</v>
       </c>
       <c r="CM36" s="86">
         <v>331300</v>
@@ -11250,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="14.25" spans="1:106">
+    <row r="37" s="3" customFormat="1" ht="15.6" spans="1:106">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -11258,7 +11117,7 @@
         <v>1510000</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -11329,41 +11188,38 @@
       <c r="AD37" s="3">
         <v>0</v>
       </c>
-      <c r="AG37" s="3">
-        <v>107</v>
-      </c>
       <c r="AL37" s="3">
         <v>0</v>
       </c>
       <c r="AM37" s="37" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AN37" s="37" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AO37" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AP37" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AQ37" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="AR37" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AS37" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="AT37" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="AU37" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="AV37" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="AW37" s="17" t="s">
         <v>109</v>
@@ -11437,7 +11293,7 @@
       <c r="CF37"/>
       <c r="CJ37" s="82"/>
       <c r="CK37" s="89">
-        <v>194023</v>
+        <v>193001</v>
       </c>
       <c r="CM37" s="86">
         <v>331300</v>
@@ -11488,7 +11344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" ht="14.25" spans="1:106">
+    <row r="38" s="3" customFormat="1" ht="15.6" spans="1:106">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -11496,7 +11352,7 @@
         <v>1520000</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -11567,41 +11423,38 @@
       <c r="AD38" s="3">
         <v>0</v>
       </c>
-      <c r="AG38" s="3">
-        <v>107</v>
-      </c>
       <c r="AL38" s="3">
         <v>0</v>
       </c>
       <c r="AM38" s="37" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="AN38" s="37" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="AO38" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="AP38" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="AQ38" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="AR38" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="AS38" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="AT38" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="AU38" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="AV38" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="AW38" s="17" t="s">
         <v>109</v>
@@ -11675,7 +11528,7 @@
       <c r="CF38"/>
       <c r="CJ38" s="82"/>
       <c r="CK38" s="89">
-        <v>194024</v>
+        <v>193002</v>
       </c>
       <c r="CM38" s="86">
         <v>331300</v>
@@ -11726,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" ht="14.25" spans="1:106">
+    <row r="39" s="3" customFormat="1" ht="15.6" spans="1:106">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -11734,7 +11587,7 @@
         <v>1530000</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -11805,41 +11658,38 @@
       <c r="AD39" s="3">
         <v>0</v>
       </c>
-      <c r="AG39" s="3">
-        <v>107</v>
-      </c>
       <c r="AL39" s="3">
         <v>0</v>
       </c>
       <c r="AM39" s="37" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="AN39" s="37" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="AO39" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="AP39" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="AQ39" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="AR39" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="AS39" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="AT39" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="AU39" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="AV39" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="AW39" s="17" t="s">
         <v>109</v>
@@ -11913,7 +11763,7 @@
       <c r="CF39"/>
       <c r="CJ39" s="82"/>
       <c r="CK39" s="89">
-        <v>194025</v>
+        <v>193003</v>
       </c>
       <c r="CM39" s="86">
         <v>331300</v>
@@ -11964,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" ht="14.25" spans="1:106">
+    <row r="40" s="3" customFormat="1" ht="15.6" spans="1:106">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -11972,7 +11822,7 @@
         <v>1540000</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -12043,41 +11893,38 @@
       <c r="AD40" s="3">
         <v>0</v>
       </c>
-      <c r="AG40" s="3">
-        <v>107</v>
-      </c>
       <c r="AL40" s="3">
         <v>0</v>
       </c>
       <c r="AM40" s="37" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="AN40" s="37" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="AO40" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="AP40" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="AQ40" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="AR40" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="AS40" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="AT40" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="AU40" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="AV40" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="AW40" s="17" t="s">
         <v>109</v>
@@ -12151,7 +11998,7 @@
       <c r="CF40"/>
       <c r="CJ40" s="82"/>
       <c r="CK40" s="89">
-        <v>194033</v>
+        <v>193004</v>
       </c>
       <c r="CM40" s="86">
         <v>331300</v>
@@ -12202,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="9" customFormat="1" spans="1:106">
+    <row r="41" s="9" customFormat="1" ht="15.6" spans="1:106">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -12210,7 +12057,7 @@
         <v>1150000</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="D41" s="9">
         <v>1</v>
@@ -12280,17 +12127,18 @@
       <c r="AD41" s="9">
         <v>0</v>
       </c>
+      <c r="AG41" s="3"/>
       <c r="AL41" s="9">
         <v>0</v>
       </c>
       <c r="AM41" s="38" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="AN41" s="38" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="AO41" s="38" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="AW41" s="28" t="s">
         <v>108</v>
@@ -12355,6 +12203,9 @@
       <c r="BX41" s="80"/>
       <c r="BY41" s="81"/>
       <c r="BZ41" s="43"/>
+      <c r="CK41" s="89">
+        <v>193005</v>
+      </c>
       <c r="CM41" s="28">
         <v>320000</v>
       </c>
@@ -12404,7 +12255,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" s="9" customFormat="1" spans="1:106">
+    <row r="42" s="9" customFormat="1" ht="15.6" spans="1:106">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -12412,7 +12263,7 @@
         <v>1160000</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="D42" s="9">
         <v>1</v>
@@ -12486,7 +12337,7 @@
         <v>0</v>
       </c>
       <c r="AM42" s="38" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="AN42" s="38"/>
       <c r="AO42" s="38"/>
@@ -12553,6 +12404,9 @@
       <c r="BX42" s="80"/>
       <c r="BY42" s="81"/>
       <c r="BZ42" s="43"/>
+      <c r="CK42" s="89">
+        <v>193006</v>
+      </c>
       <c r="CM42" s="28">
         <v>320000</v>
       </c>
@@ -12707,7 +12561,7 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -12724,7 +12578,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
